--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam23-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam23-Itgb3.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1790343333333333</v>
+        <v>0.09286699999999999</v>
       </c>
       <c r="H2">
-        <v>0.537103</v>
+        <v>0.278601</v>
       </c>
       <c r="I2">
-        <v>0.00485560647444994</v>
+        <v>0.003009076821730935</v>
       </c>
       <c r="J2">
-        <v>0.00522711558998419</v>
+        <v>0.003071957783644885</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N2">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O2">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P2">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q2">
-        <v>0.853648949874</v>
+        <v>0.6233684992733333</v>
       </c>
       <c r="R2">
-        <v>7.682840548866</v>
+        <v>5.610316493459999</v>
       </c>
       <c r="S2">
-        <v>0.002531518676896542</v>
+        <v>0.001904892360969564</v>
       </c>
       <c r="T2">
-        <v>0.002802503744100507</v>
+        <v>0.001970508512930376</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1790343333333333</v>
+        <v>0.09286699999999999</v>
       </c>
       <c r="H3">
-        <v>0.537103</v>
+        <v>0.278601</v>
       </c>
       <c r="I3">
-        <v>0.00485560647444994</v>
+        <v>0.003009076821730935</v>
       </c>
       <c r="J3">
-        <v>0.00522711558998419</v>
+        <v>0.003071957783644885</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O3">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P3">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q3">
-        <v>0.5519363525853334</v>
+        <v>0.286295216684</v>
       </c>
       <c r="R3">
-        <v>4.967427173268001</v>
+        <v>2.576656950156</v>
       </c>
       <c r="S3">
-        <v>0.001636781940906928</v>
+        <v>0.0008748622554383341</v>
       </c>
       <c r="T3">
-        <v>0.001811990391195215</v>
+        <v>0.0009049978661814009</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1790343333333333</v>
+        <v>0.09286699999999999</v>
       </c>
       <c r="H4">
-        <v>0.537103</v>
+        <v>0.278601</v>
       </c>
       <c r="I4">
-        <v>0.00485560647444994</v>
+        <v>0.003009076821730935</v>
       </c>
       <c r="J4">
-        <v>0.00522711558998419</v>
+        <v>0.003071957783644885</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N4">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O4">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P4">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q4">
-        <v>0.03246817474055555</v>
+        <v>0.02317121421433333</v>
       </c>
       <c r="R4">
-        <v>0.292213572665</v>
+        <v>0.208540927929</v>
       </c>
       <c r="S4">
-        <v>9.628523618823506E-05</v>
+        <v>7.080670422507046E-05</v>
       </c>
       <c r="T4">
-        <v>0.0001065920379658957</v>
+        <v>7.324572049678866E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1790343333333333</v>
+        <v>0.09286699999999999</v>
       </c>
       <c r="H5">
-        <v>0.537103</v>
+        <v>0.278601</v>
       </c>
       <c r="I5">
-        <v>0.00485560647444994</v>
+        <v>0.003009076821730935</v>
       </c>
       <c r="J5">
-        <v>0.00522711558998419</v>
+        <v>0.003071957783644885</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N5">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O5">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P5">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q5">
-        <v>0.1354779655483333</v>
+        <v>0.0386927105155</v>
       </c>
       <c r="R5">
-        <v>0.81286779329</v>
+        <v>0.232156263093</v>
       </c>
       <c r="S5">
-        <v>0.0004017635119731293</v>
+        <v>0.0001182373648525741</v>
       </c>
       <c r="T5">
-        <v>0.000296513381953526</v>
+        <v>8.154012225301961E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1790343333333333</v>
+        <v>0.09286699999999999</v>
       </c>
       <c r="H6">
-        <v>0.537103</v>
+        <v>0.278601</v>
       </c>
       <c r="I6">
-        <v>0.00485560647444994</v>
+        <v>0.003009076821730935</v>
       </c>
       <c r="J6">
-        <v>0.00522711558998419</v>
+        <v>0.003071957783644885</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N6">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O6">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P6">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q6">
-        <v>0.06381905588488888</v>
+        <v>0.01318086095533333</v>
       </c>
       <c r="R6">
-        <v>0.574371502964</v>
+        <v>0.118627748598</v>
       </c>
       <c r="S6">
-        <v>0.0001892571084851059</v>
+        <v>4.027813624539137E-05</v>
       </c>
       <c r="T6">
-        <v>0.000209516034769046</v>
+        <v>4.16655617832998E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>85.851541</v>
       </c>
       <c r="I7">
-        <v>0.7761291564580808</v>
+        <v>0.9272539658256183</v>
       </c>
       <c r="J7">
-        <v>0.8355118634326505</v>
+        <v>0.9466308793322996</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N7">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O7">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P7">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q7">
-        <v>136.448833500678</v>
+        <v>192.0924414250955</v>
       </c>
       <c r="R7">
-        <v>1228.039501506102</v>
+        <v>1728.83197282586</v>
       </c>
       <c r="S7">
-        <v>0.4046426467211117</v>
+        <v>0.5869969764227888</v>
       </c>
       <c r="T7">
-        <v>0.4479574031224889</v>
+        <v>0.6072167450536474</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>85.851541</v>
       </c>
       <c r="I8">
-        <v>0.7761291564580808</v>
+        <v>0.9272539658256183</v>
       </c>
       <c r="J8">
-        <v>0.8355118634326505</v>
+        <v>0.9466308793322996</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O8">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P8">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q8">
         <v>88.22253162497735</v>
@@ -948,10 +948,10 @@
         <v>794.002784624796</v>
       </c>
       <c r="S8">
-        <v>0.2616262651815959</v>
+        <v>0.2695908226894972</v>
       </c>
       <c r="T8">
-        <v>0.2896319092637764</v>
+        <v>0.2788771806755362</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>85.851541</v>
       </c>
       <c r="I9">
-        <v>0.7761291564580808</v>
+        <v>0.9272539658256183</v>
       </c>
       <c r="J9">
-        <v>0.8355118634326505</v>
+        <v>0.9466308793322996</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N9">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O9">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P9">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q9">
-        <v>5.189773348750555</v>
+        <v>7.140263125909889</v>
       </c>
       <c r="R9">
-        <v>46.70796013875499</v>
+        <v>64.262368133189</v>
       </c>
       <c r="S9">
-        <v>0.01539041096830393</v>
+        <v>0.02181924928788307</v>
       </c>
       <c r="T9">
-        <v>0.01703786930570608</v>
+        <v>0.02257083777985216</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>85.851541</v>
       </c>
       <c r="I10">
-        <v>0.7761291564580808</v>
+        <v>0.9272539658256183</v>
       </c>
       <c r="J10">
-        <v>0.8355118634326505</v>
+        <v>0.9466308793322996</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N10">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O10">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P10">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q10">
-        <v>21.65504961593833</v>
+        <v>11.92324802575217</v>
       </c>
       <c r="R10">
-        <v>129.93029769563</v>
+        <v>71.53948815451301</v>
       </c>
       <c r="S10">
-        <v>0.06421862588826557</v>
+        <v>0.03643511680278508</v>
       </c>
       <c r="T10">
-        <v>0.04739524964081712</v>
+        <v>0.02512677681971754</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>85.851541</v>
       </c>
       <c r="I11">
-        <v>0.7761291564580808</v>
+        <v>0.9272539658256183</v>
       </c>
       <c r="J11">
-        <v>0.8355118634326505</v>
+        <v>0.9466308793322996</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N11">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O11">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P11">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q11">
-        <v>10.20095641410089</v>
+        <v>4.061712717190889</v>
       </c>
       <c r="R11">
-        <v>91.80860772690799</v>
+        <v>36.555414454718</v>
       </c>
       <c r="S11">
-        <v>0.03025120769880362</v>
+        <v>0.01241180062266396</v>
       </c>
       <c r="T11">
-        <v>0.03348943209986199</v>
+        <v>0.01283933900354628</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.184753</v>
+        <v>0.243062</v>
       </c>
       <c r="H12">
-        <v>0.5542589999999999</v>
+        <v>0.729186</v>
       </c>
       <c r="I12">
-        <v>0.005010702954409395</v>
+        <v>0.007875695677081898</v>
       </c>
       <c r="J12">
-        <v>0.005394078714490605</v>
+        <v>0.00804027483183793</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N12">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O12">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P12">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q12">
-        <v>0.880915975722</v>
+        <v>1.631550434173333</v>
       </c>
       <c r="R12">
-        <v>7.928243781498</v>
+        <v>14.68395390756</v>
       </c>
       <c r="S12">
-        <v>0.00261237976763861</v>
+        <v>0.004985699409284077</v>
       </c>
       <c r="T12">
-        <v>0.002892020567193635</v>
+        <v>0.005157437412319586</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.184753</v>
+        <v>0.243062</v>
       </c>
       <c r="H13">
-        <v>0.5542589999999999</v>
+        <v>0.729186</v>
       </c>
       <c r="I13">
-        <v>0.005010702954409395</v>
+        <v>0.007875695677081898</v>
       </c>
       <c r="J13">
-        <v>0.005394078714490605</v>
+        <v>0.00804027483183793</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O13">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P13">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q13">
-        <v>0.569566155556</v>
+        <v>0.7493241728240001</v>
       </c>
       <c r="R13">
-        <v>5.126095400004</v>
+        <v>6.743917555416001</v>
       </c>
       <c r="S13">
-        <v>0.001689063590754721</v>
+        <v>0.002289788294349472</v>
       </c>
       <c r="T13">
-        <v>0.001869868502379374</v>
+        <v>0.002368662618042832</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.184753</v>
+        <v>0.243062</v>
       </c>
       <c r="H14">
-        <v>0.5542589999999999</v>
+        <v>0.729186</v>
       </c>
       <c r="I14">
-        <v>0.005010702954409395</v>
+        <v>0.007875695677081898</v>
       </c>
       <c r="J14">
-        <v>0.005394078714490605</v>
+        <v>0.00804027483183793</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N14">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O14">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P14">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q14">
-        <v>0.03350526447166666</v>
+        <v>0.06064631859933333</v>
       </c>
       <c r="R14">
-        <v>0.3015473802449999</v>
+        <v>0.545816867394</v>
       </c>
       <c r="S14">
-        <v>9.93607533833454E-05</v>
+        <v>0.0001853233025978451</v>
       </c>
       <c r="T14">
-        <v>0.0001099967722595841</v>
+        <v>0.0001917069714256996</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.184753</v>
+        <v>0.243062</v>
       </c>
       <c r="H15">
-        <v>0.5542589999999999</v>
+        <v>0.729186</v>
       </c>
       <c r="I15">
-        <v>0.005010702954409395</v>
+        <v>0.007875695677081898</v>
       </c>
       <c r="J15">
-        <v>0.005394078714490605</v>
+        <v>0.00804027483183793</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N15">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O15">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P15">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q15">
-        <v>0.139805366395</v>
+        <v>0.101270931583</v>
       </c>
       <c r="R15">
-        <v>0.8388321983699999</v>
+        <v>0.6076255894980001</v>
       </c>
       <c r="S15">
-        <v>0.0004145965343383199</v>
+        <v>0.0003094641840028899</v>
       </c>
       <c r="T15">
-        <v>0.0003059845328888116</v>
+        <v>0.0002134160164004808</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.243062</v>
+      </c>
+      <c r="H16">
+        <v>0.729186</v>
+      </c>
+      <c r="I16">
+        <v>0.007875695677081898</v>
+      </c>
+      <c r="J16">
+        <v>0.00804027483183793</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="L16">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G16">
-        <v>0.184753</v>
-      </c>
-      <c r="H16">
-        <v>0.5542589999999999</v>
-      </c>
-      <c r="I16">
-        <v>0.005010702954409395</v>
-      </c>
-      <c r="J16">
-        <v>0.005394078714490605</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
       <c r="M16">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N16">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O16">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P16">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q16">
-        <v>0.06585754705466665</v>
+        <v>0.03449843782533334</v>
       </c>
       <c r="R16">
-        <v>0.5927179234919999</v>
+        <v>0.310485940428</v>
       </c>
       <c r="S16">
-        <v>0.0001953023082943985</v>
+        <v>0.0001054204868476134</v>
       </c>
       <c r="T16">
-        <v>0.0002162083397692001</v>
+        <v>0.0001090518136493309</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.8617905</v>
+        <v>1.8951925</v>
       </c>
       <c r="H17">
-        <v>15.723581</v>
+        <v>3.790385</v>
       </c>
       <c r="I17">
-        <v>0.2132203368026377</v>
+        <v>0.06140803325689756</v>
       </c>
       <c r="J17">
-        <v>0.1530227449399449</v>
+        <v>0.04179418847656979</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N17">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O17">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P17">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q17">
-        <v>37.485598876497</v>
+        <v>12.72145438701667</v>
       </c>
       <c r="R17">
-        <v>224.913593258982</v>
+        <v>76.3287263221</v>
       </c>
       <c r="S17">
-        <v>0.1111645409796509</v>
+        <v>0.03887427951604781</v>
       </c>
       <c r="T17">
-        <v>0.08204272667098786</v>
+        <v>0.02680889842385204</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.8617905</v>
+        <v>1.8951925</v>
       </c>
       <c r="H18">
-        <v>15.723581</v>
+        <v>3.790385</v>
       </c>
       <c r="I18">
-        <v>0.2132203368026377</v>
+        <v>0.06140803325689756</v>
       </c>
       <c r="J18">
-        <v>0.1530227449399449</v>
+        <v>0.04179418847656979</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O18">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P18">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q18">
-        <v>24.236736566506</v>
+        <v>5.842597989010001</v>
       </c>
       <c r="R18">
-        <v>145.420419399036</v>
+        <v>35.05558793406</v>
       </c>
       <c r="S18">
-        <v>0.07187468724021452</v>
+        <v>0.01785383812376641</v>
       </c>
       <c r="T18">
-        <v>0.05304564987940796</v>
+        <v>0.01231255572308064</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.8617905</v>
+        <v>1.8951925</v>
       </c>
       <c r="H19">
-        <v>15.723581</v>
+        <v>3.790385</v>
       </c>
       <c r="I19">
-        <v>0.2132203368026377</v>
+        <v>0.06140803325689756</v>
       </c>
       <c r="J19">
-        <v>0.1530227449399449</v>
+        <v>0.04179418847656979</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N19">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O19">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P19">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q19">
-        <v>1.425748810159167</v>
+        <v>0.4728688489441666</v>
       </c>
       <c r="R19">
-        <v>8.554492860955</v>
+        <v>2.837213093665</v>
       </c>
       <c r="S19">
-        <v>0.004228096036448815</v>
+        <v>0.001444994829132758</v>
       </c>
       <c r="T19">
-        <v>0.003120460215101827</v>
+        <v>0.0009965128635045111</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.8617905</v>
+        <v>1.8951925</v>
       </c>
       <c r="H20">
-        <v>15.723581</v>
+        <v>3.790385</v>
       </c>
       <c r="I20">
-        <v>0.2132203368026377</v>
+        <v>0.06140803325689756</v>
       </c>
       <c r="J20">
-        <v>0.1530227449399449</v>
+        <v>0.04179418847656979</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N20">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O20">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P20">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q20">
-        <v>5.9491347982075</v>
+        <v>0.7896253219512501</v>
       </c>
       <c r="R20">
-        <v>23.79653919283</v>
+        <v>3.158501287805001</v>
       </c>
       <c r="S20">
-        <v>0.01764231755367398</v>
+        <v>0.002412940733396816</v>
       </c>
       <c r="T20">
-        <v>0.008680368902668956</v>
+        <v>0.001109358747046894</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.8617905</v>
+        <v>1.8951925</v>
       </c>
       <c r="H21">
-        <v>15.723581</v>
+        <v>3.790385</v>
       </c>
       <c r="I21">
-        <v>0.2132203368026377</v>
+        <v>0.06140803325689756</v>
       </c>
       <c r="J21">
-        <v>0.1530227449399449</v>
+        <v>0.04179418847656979</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N21">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O21">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P21">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q21">
-        <v>2.802434806404666</v>
+        <v>0.2689897253716667</v>
       </c>
       <c r="R21">
-        <v>16.814608838428</v>
+        <v>1.61393835223</v>
       </c>
       <c r="S21">
-        <v>0.008310694992649503</v>
+        <v>0.0008219800545537585</v>
       </c>
       <c r="T21">
-        <v>0.006133539271778245</v>
+        <v>0.0005668627190856918</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.02891466666666667</v>
+        <v>0.01398766666666667</v>
       </c>
       <c r="H22">
-        <v>0.086744</v>
+        <v>0.041963</v>
       </c>
       <c r="I22">
-        <v>0.0007841973104221829</v>
+        <v>0.000453228418671488</v>
       </c>
       <c r="J22">
-        <v>0.0008441973229298452</v>
+        <v>0.0004626995756479349</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N22">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O22">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P22">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q22">
-        <v>0.137867270352</v>
+        <v>0.09389202599777777</v>
       </c>
       <c r="R22">
-        <v>1.240805433168</v>
+        <v>0.8450282339799999</v>
       </c>
       <c r="S22">
-        <v>0.0004088490589490538</v>
+        <v>0.0002869156899773003</v>
       </c>
       <c r="T22">
-        <v>0.0004526140885049132</v>
+        <v>0.000296798822430994</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.02891466666666667</v>
+        <v>0.01398766666666667</v>
       </c>
       <c r="H23">
-        <v>0.086744</v>
+        <v>0.041963</v>
       </c>
       <c r="I23">
-        <v>0.0007841973104221829</v>
+        <v>0.000453228418671488</v>
       </c>
       <c r="J23">
-        <v>0.0008441973229298452</v>
+        <v>0.0004626995756479349</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O23">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P23">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q23">
-        <v>0.08913963796266668</v>
+        <v>0.04312190615866667</v>
       </c>
       <c r="R23">
-        <v>0.8022567416640001</v>
+        <v>0.3880971554280001</v>
       </c>
       <c r="S23">
-        <v>0.0002643459684306931</v>
+        <v>0.0001317721215105431</v>
       </c>
       <c r="T23">
-        <v>0.0002926427416972867</v>
+        <v>0.0001363111598973806</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.02891466666666667</v>
+        <v>0.01398766666666667</v>
       </c>
       <c r="H24">
-        <v>0.086744</v>
+        <v>0.041963</v>
       </c>
       <c r="I24">
-        <v>0.0007841973104221829</v>
+        <v>0.000453228418671488</v>
       </c>
       <c r="J24">
-        <v>0.0008441973229298452</v>
+        <v>0.0004626995756479349</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N24">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O24">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P24">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q24">
-        <v>0.005243722991111111</v>
+        <v>0.003490058047444445</v>
       </c>
       <c r="R24">
-        <v>0.04719350692</v>
+        <v>0.031410522427</v>
       </c>
       <c r="S24">
-        <v>1.555040006835237E-05</v>
+        <v>1.066493562261669E-05</v>
       </c>
       <c r="T24">
-        <v>1.721498435367827E-05</v>
+        <v>1.10323012810677E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.02891466666666667</v>
+        <v>0.01398766666666667</v>
       </c>
       <c r="H25">
-        <v>0.086744</v>
+        <v>0.041963</v>
       </c>
       <c r="I25">
-        <v>0.0007841973104221829</v>
+        <v>0.000453228418671488</v>
       </c>
       <c r="J25">
-        <v>0.0008441973229298452</v>
+        <v>0.0004626995756479349</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N25">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O25">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P25">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q25">
-        <v>0.02188016198666667</v>
+        <v>0.005827912359833334</v>
       </c>
       <c r="R25">
-        <v>0.13128097192</v>
+        <v>0.03496747415900001</v>
       </c>
       <c r="S25">
-        <v>6.488620261401842E-05</v>
+        <v>1.780896170978772E-05</v>
       </c>
       <c r="T25">
-        <v>4.788794105446565E-05</v>
+        <v>1.228160756818339E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.01398766666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.041963</v>
+      </c>
+      <c r="I26">
+        <v>0.000453228418671488</v>
+      </c>
+      <c r="J26">
+        <v>0.0004626995756479349</v>
+      </c>
+      <c r="K26">
         <v>2</v>
       </c>
-      <c r="F26">
+      <c r="L26">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G26">
-        <v>0.02891466666666667</v>
-      </c>
-      <c r="H26">
-        <v>0.086744</v>
-      </c>
-      <c r="I26">
-        <v>0.0007841973104221829</v>
-      </c>
-      <c r="J26">
-        <v>0.0008441973229298452</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
       <c r="M26">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N26">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O26">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P26">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q26">
-        <v>0.01030699918577778</v>
+        <v>0.001985306830444445</v>
       </c>
       <c r="R26">
-        <v>0.092762992672</v>
+        <v>0.017867761474</v>
       </c>
       <c r="S26">
-        <v>3.056568036006508E-05</v>
+        <v>6.066709851240153E-06</v>
       </c>
       <c r="T26">
-        <v>3.383756731950134E-05</v>
+        <v>6.275684470309186E-06</v>
       </c>
     </row>
   </sheetData>
